--- a/annotation/column_names.xlsx
+++ b/annotation/column_names.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="287">
   <si>
     <t>Index</t>
   </si>
@@ -859,9 +859,6 @@
     <t>position wrt camera space, from the sensor persectivem, Z -&gt; forward</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>lift up/down</t>
   </si>
   <si>
@@ -881,6 +878,12 @@
   </si>
   <si>
     <t>angle of the first voice (-) is the side of the assistant</t>
+  </si>
+  <si>
+    <t>Lower fence</t>
+  </si>
+  <si>
+    <t>Upper fence</t>
   </si>
 </sst>
 </file>
@@ -948,13 +951,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1261,8 +1270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F161"/>
   <sheetViews>
-    <sheetView topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="B145" sqref="B145"/>
+    <sheetView topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3267,392 +3276,476 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="84.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="84.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>53</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>269</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
+        <v>269</v>
+      </c>
+      <c r="H3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
+        <v>269</v>
+      </c>
+      <c r="H4" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E3" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" t="s">
-        <v>269</v>
-      </c>
-      <c r="E4" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>270</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14">
+        <v>-0.4</v>
+      </c>
+      <c r="H14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>270</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15">
+        <v>-0.6</v>
+      </c>
+      <c r="H15" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>270</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16">
+        <v>1.5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" t="s">
+        <v>201</v>
+      </c>
+      <c r="H17" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" t="s">
+        <v>201</v>
+      </c>
+      <c r="H18" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>206</v>
+      </c>
+      <c r="E19" t="s">
+        <v>207</v>
+      </c>
+      <c r="H19" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
         <v>29</v>
       </c>
-      <c r="E5" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E20" t="s">
+        <v>210</v>
+      </c>
+      <c r="H20" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C21" t="s">
+        <v>213</v>
+      </c>
+      <c r="D21" t="s">
         <v>29</v>
       </c>
-      <c r="E6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E21" t="s">
         <v>29</v>
       </c>
-      <c r="E7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="H21" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C22" t="s">
+        <v>213</v>
+      </c>
+      <c r="D22" t="s">
         <v>29</v>
       </c>
-      <c r="E8" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E22" t="s">
         <v>29</v>
       </c>
-      <c r="E9" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>270</v>
-      </c>
-      <c r="D14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>270</v>
-      </c>
-      <c r="D15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>270</v>
-      </c>
-      <c r="D16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" t="s">
-        <v>201</v>
-      </c>
-      <c r="E17" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" t="s">
-        <v>201</v>
-      </c>
-      <c r="E18" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>206</v>
-      </c>
-      <c r="D19" t="s">
-        <v>207</v>
-      </c>
-      <c r="E19" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" t="s">
-        <v>210</v>
-      </c>
-      <c r="E20" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="B21" t="s">
-        <v>213</v>
-      </c>
-      <c r="C21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" t="s">
-        <v>278</v>
-      </c>
-      <c r="E21" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="B22" t="s">
-        <v>213</v>
-      </c>
-      <c r="C22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" t="s">
-        <v>278</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="H22" t="s">
         <v>272</v>
       </c>
     </row>
